--- a/Doc/Mode_I2C_CMD.xlsx
+++ b/Doc/Mode_I2C_CMD.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,5 +751,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="28029" divId="Mode_I2C_CMD_28029" sourceType="sheet" destinationFile="D:\windows_10_software\Users\Administrator\Documents\Mode_I2C_CMD.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>